--- a/file12.xlsx
+++ b/file12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerxie/PycharmProjects/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerxie/PycharmProjects/test/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00367D9-D03D-D649-BA1E-15CDD59732BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B80D4-73C8-1F4F-B5FF-09FD82B7B5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="3540" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>a11</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>b16</t>
-  </si>
-  <si>
-    <t>c11</t>
-  </si>
-  <si>
-    <t>c21</t>
   </si>
   <si>
     <t>a11</t>
@@ -432,26 +426,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -486,7 +480,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -538,48 +532,6 @@
       </c>
       <c r="D7">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/file12.xlsx
+++ b/file12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerxie/PycharmProjects/test/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerxie/PycharmProjects/excel_process_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B80D4-73C8-1F4F-B5FF-09FD82B7B5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1EF5C1-35AD-C74A-95EB-B98056D8C7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -119,11 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,10 +436,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="25.5" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -444,7 +454,7 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1"/>
@@ -460,8 +470,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>3</v>
+      <c r="D2" s="3">
+        <v>44561.934432870374</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -474,8 +484,8 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>6</v>
+      <c r="D3" s="3">
+        <v>44561.934432870374</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -488,8 +498,8 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>9</v>
+      <c r="D4" s="3">
+        <v>44562.934432870374</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -502,8 +512,8 @@
       <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>12</v>
+      <c r="D5" s="3">
+        <v>44561.934432870374</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -516,8 +526,8 @@
       <c r="C6">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>15</v>
+      <c r="D6" s="3">
+        <v>44562.934432870374</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -530,8 +540,8 @@
       <c r="C7">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>18</v>
+      <c r="D7" s="3">
+        <v>44563.934432870374</v>
       </c>
     </row>
   </sheetData>

--- a/file12.xlsx
+++ b/file12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerxie/PycharmProjects/excel_process_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1EF5C1-35AD-C74A-95EB-B98056D8C7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB0CC75-8101-E740-8A1C-3725CFEA21E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,6 @@
     <t>b16</t>
   </si>
   <si>
-    <t>a11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>a2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -54,6 +50,10 @@
   </si>
   <si>
     <t>d2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -127,10 +127,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -446,16 +446,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>7</v>
